--- a/logischer_entwurf.xlsx
+++ b/logischer_entwurf.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Michael.Lindner\source\repos\202512\202512\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CB4EAAF-7893-411D-BFCA-302C9B91604F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C838E38-902E-4CEE-8E2F-7C5A489B177F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38290" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{269431BB-F633-44AF-8152-A9E4D271506F}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="50">
   <si>
     <t>tbl_seller</t>
   </si>
@@ -165,13 +165,34 @@
   </si>
   <si>
     <t>x3</t>
+  </si>
+  <si>
+    <t>mit index</t>
+  </si>
+  <si>
+    <t>Gesamtspeicherbedarf</t>
+  </si>
+  <si>
+    <t>Arbeitsspeicherbedarf</t>
+  </si>
+  <si>
+    <t>SQL Server MS</t>
+  </si>
+  <si>
+    <t>Nutzerfaktor</t>
+  </si>
+  <si>
+    <t>Nutzeranzahl</t>
+  </si>
+  <si>
+    <t>Speicher</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -179,8 +200,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -196,6 +223,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -227,13 +260,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -568,15 +602,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88369100-0887-4943-BC66-39385E947001}">
-  <dimension ref="A2:K28"/>
+  <dimension ref="A2:K33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="3" max="3" width="9.26171875" customWidth="1"/>
+    <col min="3" max="3" width="12.05078125" customWidth="1"/>
     <col min="6" max="6" width="12.7890625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -656,7 +690,7 @@
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="4" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -672,7 +706,7 @@
       <c r="G5" s="1">
         <v>100</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="I5" s="5" t="s">
         <v>4</v>
       </c>
       <c r="J5" s="1" t="s">
@@ -686,10 +720,10 @@
       <c r="A6" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="1">
         <v>4</v>
       </c>
       <c r="E6" s="1"/>
@@ -745,7 +779,7 @@
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="E10" s="1" t="s">
+      <c r="E10" s="5" t="s">
         <v>4</v>
       </c>
       <c r="F10" s="1" t="s">
@@ -756,9 +790,7 @@
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3">
+      <c r="G11">
         <f>G3*SUM(G2:G10)/1024/1024</f>
         <v>38.330459594726563</v>
       </c>
@@ -800,7 +832,7 @@
       <c r="C14" s="1">
         <v>100</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="E14" s="5" t="s">
         <v>4</v>
       </c>
       <c r="F14" s="1" t="s">
@@ -819,7 +851,7 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="1"/>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="3" t="s">
         <v>18</v>
       </c>
       <c r="C15" s="1">
@@ -866,7 +898,7 @@
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="1" t="s">
+      <c r="A17" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B17" s="1" t="s">
@@ -884,7 +916,7 @@
       <c r="G17" s="1">
         <v>4</v>
       </c>
-      <c r="I17" s="1" t="s">
+      <c r="I17" s="5" t="s">
         <v>4</v>
       </c>
       <c r="J17" s="1" t="s">
@@ -970,13 +1002,16 @@
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26" t="s">
+        <v>43</v>
+      </c>
       <c r="C26">
-        <f>C7+G11+K7+C20+G18+K18</f>
-        <v>40.089445114135742</v>
+        <f>(C7+G11+K7+C20+G18+K18)*2</f>
+        <v>80.178890228271484</v>
       </c>
       <c r="D26">
         <f>C26*5</f>
-        <v>200.44722557067871</v>
+        <v>400.89445114135742</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -988,7 +1023,49 @@
       </c>
       <c r="D28">
         <f>D26*3</f>
-        <v>601.34167671203613</v>
+        <v>1202.6833534240723</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A30" t="s">
+        <v>44</v>
+      </c>
+      <c r="D30">
+        <f>SUM(D26,D29,D28)</f>
+        <v>1603.5778045654297</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A32" t="s">
+        <v>45</v>
+      </c>
+      <c r="C32" t="s">
+        <v>47</v>
+      </c>
+      <c r="D32" t="s">
+        <v>48</v>
+      </c>
+      <c r="E32" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A33" t="s">
+        <v>46</v>
+      </c>
+      <c r="C33" s="6">
+        <v>150</v>
+      </c>
+      <c r="D33">
+        <v>10</v>
+      </c>
+      <c r="E33">
+        <f>D26+(D33*C33)</f>
+        <v>1900.8944511413574</v>
+      </c>
+      <c r="F33">
+        <f>E33/1024</f>
+        <v>1.8563422374427319</v>
       </c>
     </row>
   </sheetData>

--- a/logischer_entwurf.xlsx
+++ b/logischer_entwurf.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Michael.Lindner\source\repos\202512\202512\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C838E38-902E-4CEE-8E2F-7C5A489B177F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4786E717-AF91-4781-BC2B-2D35CB596A14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38290" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{269431BB-F633-44AF-8152-A9E4D271506F}"/>
   </bookViews>
@@ -192,7 +192,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -202,6 +202,14 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -260,7 +268,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -268,6 +276,7 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -604,8 +613,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88369100-0887-4943-BC66-39385E947001}">
   <dimension ref="A2:K33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25:F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -991,13 +1000,14 @@
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A25" t="s">
+      <c r="A25" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="C25" t="s">
+      <c r="B25" s="7"/>
+      <c r="C25" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D25" s="7" t="s">
         <v>40</v>
       </c>
     </row>
@@ -1015,7 +1025,7 @@
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A28" t="s">
+      <c r="A28" s="7" t="s">
         <v>41</v>
       </c>
       <c r="C28" t="s">
@@ -1027,7 +1037,7 @@
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A30" t="s">
+      <c r="A30" s="7" t="s">
         <v>44</v>
       </c>
       <c r="D30">
@@ -1070,5 +1080,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
--- a/logischer_entwurf.xlsx
+++ b/logischer_entwurf.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Michael.Lindner\source\repos\202512\202512\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4786E717-AF91-4781-BC2B-2D35CB596A14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FC19980-3AB9-4173-A84E-425BC4A7EDFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38290" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{269431BB-F633-44AF-8152-A9E4D271506F}"/>
+    <workbookView xWindow="38290" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{269431BB-F633-44AF-8152-A9E4D271506F}"/>
   </bookViews>
   <sheets>
     <sheet name="logischer ENtwurf" sheetId="1" r:id="rId1"/>
+    <sheet name="physikalischer Entwurf" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="58">
   <si>
     <t>tbl_seller</t>
   </si>
@@ -186,6 +187,30 @@
   </si>
   <si>
     <t>Speicher</t>
+  </si>
+  <si>
+    <t>Datentyp</t>
+  </si>
+  <si>
+    <t>varchar(255)</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>varchar(100)</t>
+  </si>
+  <si>
+    <t>varchar(10)</t>
+  </si>
+  <si>
+    <t>money</t>
+  </si>
+  <si>
+    <t>varchar(200)</t>
+  </si>
+  <si>
+    <t>varchar(500)</t>
   </si>
 </sst>
 </file>
@@ -613,8 +638,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88369100-0887-4943-BC66-39385E947001}">
   <dimension ref="A2:K33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25:F33"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -1082,4 +1107,465 @@
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17E4FC66-5259-46A5-9491-C5F1BFCE6A6D}">
+  <dimension ref="A1:N19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L17" sqref="L17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1" s="1">
+        <v>10</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2"/>
+      <c r="I1" s="1">
+        <v>1500</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="M1" s="2"/>
+      <c r="N1" s="1">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D2" s="1">
+        <v>255</v>
+      </c>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="I2" s="1">
+        <v>100</v>
+      </c>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="N2" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D3" s="1">
+        <v>255</v>
+      </c>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="I3" s="1">
+        <v>100</v>
+      </c>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="N3" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D4" s="1">
+        <v>2</v>
+      </c>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="I4" s="1">
+        <v>100</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="N4" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D5" s="1">
+        <v>4</v>
+      </c>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I5" s="1">
+        <v>400000</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="N5" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="D6">
+        <f>D2*SUM(D1:D5)/1024/1024</f>
+        <v>0.12791633605957031</v>
+      </c>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="I6" s="1">
+        <v>100</v>
+      </c>
+      <c r="N6">
+        <f>N2*SUM(N1:N5)/1024/1024</f>
+        <v>0.1628875732421875</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="F7" s="1"/>
+      <c r="G7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="I7" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="F8" s="1"/>
+      <c r="G8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I8" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="F9" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="I9" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="I10">
+        <f>I2*SUM(I1:I9)/1024/1024</f>
+        <v>38.330459594726563</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="2"/>
+      <c r="D12" s="1">
+        <v>2000</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H12" s="2"/>
+      <c r="I12" s="1">
+        <v>2000</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M12" s="2"/>
+      <c r="N12" s="1">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D13" s="1">
+        <v>100</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="I13" s="1">
+        <v>4</v>
+      </c>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="N13" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="1"/>
+      <c r="B14" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14" s="1">
+        <v>10</v>
+      </c>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="I14" s="1">
+        <v>6</v>
+      </c>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="N14" s="1">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D15" s="1">
+        <v>100</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="I15" s="1">
+        <v>4</v>
+      </c>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="N15" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D16" s="1">
+        <v>4</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="I16" s="1">
+        <v>4</v>
+      </c>
+      <c r="K16" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="M16" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="N16" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D17" s="1">
+        <v>4</v>
+      </c>
+      <c r="I17">
+        <f>I12*SUM(I13:I16)/1024/1024</f>
+        <v>3.4332275390625E-2</v>
+      </c>
+      <c r="N17">
+        <f>N12*SUM(N13:N16)/1024/1024</f>
+        <v>1.0142326354980469</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D18" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="D19">
+        <f>D12*SUM(D13:D18)/1024/1024</f>
+        <v>0.41961669921875</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
 </file>